--- a/Users.xlsx
+++ b/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\Rajiv\Projects\Chat Application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD94FF-74D2-49C0-B0F5-5CD60838E4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FED8F-AB9C-415C-8308-EB6C9497ED54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA9A1137-23F2-4A62-8AB5-FC1C3B1D2848}"/>
   </bookViews>
